--- a/public/downloads/excel/backdate/registration_sample_collection_template_backdate.xlsx
+++ b/public/downloads/excel/backdate/registration_sample_collection_template_backdate.xlsx
@@ -405,7 +405,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RUPESH KARN:</t>
         </r>
@@ -414,7 +414,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Please enter date in YYYY-MM-DD format in A.D.
@@ -2865,7 +2865,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2912,19 +2912,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3396,7 +3383,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -12974,7 +12961,7 @@
       <c r="Q501" s="20"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="h5UBHsxZGUdGn3wJCjhRrHDYu/QfMLW7r8EV/7936wtQjkC18EkULY7u0kqpY1GyiLoRgohtc1jnyFkJec6Wmg==" saltValue="31KROdDEr2GELMD4sU1h1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nCYlx+sjiuCtP12hfvSF3YZsci45gbRBv3N7yaMGTNspB/ueXE87cnIjHBH+vM0wuMWwBNFTVF06FUDvr/NitA==" saltValue="VAhL2zhaGidCNU3Uk1vjNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataValidations xWindow="504" yWindow="412" count="17">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>"Year, Month,Day"</formula1>
@@ -13020,7 +13007,7 @@
       <formula2>120</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I501">
-      <formula1>"Dalit,Janajati,Madheshi,Muslim,Brahmin,Other,Don't Know"</formula1>
+      <formula1>"Dalit,Janajati,Madheshi,Muslim,Brahmin/Chhetri,Other,Don't Know"</formula1>
     </dataValidation>
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Please read this" error="Please enter date in YYYY-MM-DD format in A.D._x000a_Note: Month &amp; Day should contain leading 0 if 1 digit._x000a_eg: 2021-09-01" sqref="Q2:Q501">
       <formula1>IF(AND(ISNUMBER(VALUE(MID(Q2,1,4))),ISNUMBER(VALUE(MID(Q2,6,2))),ISNUMBER(VALUE(MID(Q2,9,2))),MID(Q2,5,1)="-",MID(Q2,8,1)="-",LEN(Q2)=10),TRUE)</formula1>
